--- a/biology/Médecine/Jean-François_Girard_(médecin)/Jean-François_Girard_(médecin).xlsx
+++ b/biology/Médecine/Jean-François_Girard_(médecin)/Jean-François_Girard_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Girard_(m%C3%A9decin)</t>
+          <t>Jean-François_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François, Robert, Nemours Girard, né en novembre 1944, est un médecin, universitaire et haut fonctionnaire français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Girard_(m%C3%A9decin)</t>
+          <t>Jean-François_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du docteur Joseph Girard, maire de La Faute-sur-Mer et de son épouse, née Suzanne Théric, psychanalyste, Jean-François Girard est docteur en médecine.
 Professeur des universités – praticien hospitalier à l'Université Pierre-et-Marie-Curie, il enseigne la médecine et la néphrologie à l’UFR Broussais-Hôtel Dieu de Paris 6 (1976-1983) et il conduit des recherches en immuno-néphrologie (1974-1979). 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Girard_(m%C3%A9decin)</t>
+          <t>Jean-François_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quand la santé devient publique, Hachette Littérature (1998).</t>
         </is>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Girard_(m%C3%A9decin)</t>
+          <t>Jean-François_Girard_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier de la Légion d’honneur
 Commandeur de l’ordre national du Mérite</t>
